--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -2,21 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sambit Nayak\Desktop\PlayWright_Automation\FreshFramework-06032024\FreshFramework\nilgiri\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sambit Nayak\Desktop\PlayWright_Automation\FreshFramework-06032024\FreshFramework\nilgiri\resource\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BD4CF-1774-42ED-8082-98719D8AFA77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A121D-40C5-41ED-825A-327F39717DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{DA867AA6-DEC6-4DFD-B909-E03FE490C049}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{DA867AA6-DEC6-4DFD-B909-E03FE490C049}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPayLoad" sheetId="1" r:id="rId1"/>
-    <sheet name="CenterAdmin" sheetId="2" r:id="rId2"/>
-    <sheet name="logOut" sheetId="3" r:id="rId3"/>
-    <sheet name="hubRegister" sheetId="4" r:id="rId4"/>
+    <sheet name="Person_Incharge" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>jyotisam@yopmail.com</t>
   </si>
@@ -42,89 +40,206 @@
     <t>password</t>
   </si>
   <si>
-    <t>gopal@uopmail.com</t>
-  </si>
-  <si>
-    <t>Gopal@123</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>logOutAssert</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>hubNamefill</t>
-  </si>
-  <si>
-    <t>visionName</t>
-  </si>
-  <si>
-    <t>missionValue</t>
-  </si>
-  <si>
-    <t>contactNo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>placeValue</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>austin@dbyarforum.org</t>
   </si>
   <si>
-    <t>Austin@123</t>
-  </si>
-  <si>
-    <t>afgsfgh</t>
-  </si>
-  <si>
-    <t>Sambit@123</t>
-  </si>
-  <si>
-    <t>Sambit@gmail.c</t>
-  </si>
-  <si>
-    <t>anshika.mishra@elait.com</t>
-  </si>
-  <si>
-    <t>Anshika@gmail.com</t>
-  </si>
-  <si>
-    <t>gopal@yopmail.com</t>
-  </si>
-  <si>
-    <t>sushmita@yopmail.com</t>
-  </si>
-  <si>
-    <t>Sushmita@123</t>
-  </si>
-  <si>
-    <t>nainasen@yopmail.com</t>
-  </si>
-  <si>
-    <t>Naina@123</t>
+    <t>Full_Name</t>
+  </si>
+  <si>
+    <t>Contact_No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>testmacro1@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro2@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro3@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro4@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro5@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro6@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro7@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro8@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro9@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro10@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro11@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro12@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro13@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro14@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro15@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro16@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro17@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro18@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro19@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro20@yopmail.com</t>
+  </si>
+  <si>
+    <t>Austin@12</t>
+  </si>
+  <si>
+    <t>testMacroone</t>
+  </si>
+  <si>
+    <t>testMacrotwo</t>
+  </si>
+  <si>
+    <t>testMacrothree</t>
+  </si>
+  <si>
+    <t>testMacrofour</t>
+  </si>
+  <si>
+    <t>testMacrofive</t>
+  </si>
+  <si>
+    <t>testMacrosix</t>
+  </si>
+  <si>
+    <t>testMacroseven</t>
+  </si>
+  <si>
+    <t>testMacroeight</t>
+  </si>
+  <si>
+    <t>testMacronine</t>
+  </si>
+  <si>
+    <t>testMacroten</t>
+  </si>
+  <si>
+    <t>testMacroeleven</t>
+  </si>
+  <si>
+    <t>testMacrotwelve</t>
+  </si>
+  <si>
+    <t>testMacrothirteen</t>
+  </si>
+  <si>
+    <t>testMacrofourteen</t>
+  </si>
+  <si>
+    <t>testMacrofifteen</t>
+  </si>
+  <si>
+    <t>testMacrosisteen</t>
+  </si>
+  <si>
+    <t>testMacroseventeen</t>
+  </si>
+  <si>
+    <t>testMacroeighteen</t>
+  </si>
+  <si>
+    <t>testMacroninteen</t>
+  </si>
+  <si>
+    <t>testMacrotwenty</t>
+  </si>
+  <si>
+    <t>testMacrotwentyone</t>
+  </si>
+  <si>
+    <t>testMacrotwentytwo</t>
+  </si>
+  <si>
+    <t>testMacrotwentythree</t>
+  </si>
+  <si>
+    <t>testMacrotwentyfour</t>
+  </si>
+  <si>
+    <t>testMacrotwentyfive</t>
+  </si>
+  <si>
+    <t>testMacrotwentysix</t>
+  </si>
+  <si>
+    <t>testMacrotwentyseven</t>
+  </si>
+  <si>
+    <t>testMacrotwentyeight</t>
+  </si>
+  <si>
+    <t>testMacrotwentynine</t>
+  </si>
+  <si>
+    <t>testMacrothirty</t>
+  </si>
+  <si>
+    <t>testmacro21@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro22@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro23@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro24@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro25@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro27@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro28@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro29@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro26@yopmail.com</t>
+  </si>
+  <si>
+    <t>testmacro30@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +254,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,12 +282,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,22 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0541BC-810D-4588-9B12-C3AA6A7D55CF}">
-  <dimension ref="A1:B2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -508,243 +627,420 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5ECAB971-F205-4AE5-997F-7ED04204C822}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{93B4679F-63AE-4C15-AB30-ECE5C8E5B59E}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5ECAB971-F205-4AE5-997F-7ED04204C822}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760B8891-7F44-4D1D-893D-161BDAB6051C}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906A9FBE-FFB2-44FC-B3FA-26F95996CF02}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>7847657847</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>7983784765</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>9873874675</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>9894895890</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>7989576456</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>9087865789</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>7865763554</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>7986784776</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>7986967890</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>9897805676</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>8974563789</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>8365748379</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>7980756789</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>8098757689</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>9467568978</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>8245679898</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>8156475898</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>9370878989</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>8578678578</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>9089859880</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>9089859881</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>9089859882</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>9089859883</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>9089859884</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>9089859885</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>9089859886</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>9089859887</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>9089859888</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>9089859889</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>9089859890</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5B355BB5-78A1-42BE-A5BE-794FF9911253}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{7F50357C-ED78-45A3-A015-07C983141A1C}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{795C5D9D-8704-46FA-BED3-E46E15056C12}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{26A7A1D3-1B75-4A4C-89A9-A9F68CDE6B8A}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{D66F469D-EBC3-46FF-8427-8E0897A509EB}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{7A678F7C-D1BF-4862-920E-BB7A2B49E9BF}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{B99BAA5C-2208-4C27-AD89-A0BAF5466D46}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{69452E2E-6934-4347-9DF1-5EFA6D3449F6}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{C6B30372-121B-434B-8792-0B7F2AA73BF8}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{04DE5322-9381-40C7-9CFD-6F75DC2B80F6}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{514EC3F6-98AF-407A-AAFB-C48E7F7C27AB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B3BEA3D7-4802-4126-8481-BE300B19E479}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{28936452-E3A3-4767-998F-77BACA41E1EC}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{AAC7E5E3-CE6F-455C-8A9D-9195DCC65752}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8D4A18BC-02B3-4683-8765-8B47B9680FB5}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{2A54CC81-8480-48BB-840C-5961B23387CB}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{07BBA7C1-485E-46A0-A33C-5ACD5175FD3A}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{494150AD-13C7-41B5-B08E-F797D7448E74}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{C39147F4-EEFD-4033-9D1E-16707C79D2CD}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{B345C6CA-2DB5-4222-8D1F-BDC543E1A7E8}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{2B045409-43CE-42EA-8BE6-68B47E6D7688}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{437DE170-7235-48DC-9B3B-CE9678CE69F3}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{BBB1DA58-185B-4FF3-9E31-21FB153F9D98}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{C59DFEEF-3A06-4D96-AD8E-745032EDFAA3}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{EF2C1C8C-C9A8-425B-9E49-B22203232795}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{31DD4BEF-A7AF-441D-9247-A37F1478ED66}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{DCE0B57E-9767-427C-9AAC-E05C05CE9DD1}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{C42C5B80-6562-4665-A91D-D7D850785693}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{3AA432B0-0B1C-4D95-81D0-8B2811A35F2C}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{6B9D72C3-6E66-4478-9BDE-7AC99347BBA7}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{AB69E79E-A654-4FF7-9D5E-5F38681324DE}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{620E3992-9061-43E3-B5B8-F18E94756AEF}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{1EB84EFD-9D26-446E-B57C-09B2C68E8F32}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{956E4BDF-9F60-4E5A-8C62-956D5068E355}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{11C2CDCA-11C0-46C2-9852-9F02B843E8D9}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{477301E6-75EF-435C-A681-50F9279BBBE6}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{31451D32-2488-432F-BBF9-60013744E8F1}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{44BB489F-AAB6-46D3-BEDD-7E22919A7686}"/>
+    <hyperlink ref="C27" r:id="rId29" xr:uid="{71364AA4-F72B-4ED3-936D-72FF2C7B570F}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{C2F80907-DD2C-4EE1-8E87-C5C29740928E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906A9FBE-FFB2-44FC-B3FA-26F95996CF02}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20F7614-CE9C-4DC2-8798-9E650F888A9F}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>